--- a/src/main/resources/xlsx/PhotonicParameters.xlsx
+++ b/src/main/resources/xlsx/PhotonicParameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\marti\Parameters2Uml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\marti\Parameters2Uml\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2FB643DE-DDEE-4D99-9DF2-C94DD328BC65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F315A8F4-2994-4C9C-B497-FE1293625A6F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="27870" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="27870" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Parameters!$A$1:$L$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Parameters!$A$1:$M$73</definedName>
     <definedName name="Parameters" localSheetId="5">[1]Parameters!$B$8:$L$73</definedName>
-    <definedName name="Parameters">Parameters!$B$8:$L$73</definedName>
+    <definedName name="Parameters">Parameters!$B$8:$M$73</definedName>
     <definedName name="start">Parameters!$E$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -452,7 +452,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="409">
   <si>
     <t>Name</t>
   </si>
@@ -1699,6 +1699,72 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>The object class &lt;Name&gt; …</t>
+  </si>
+  <si>
+    <t>The object class 'SummaryProperties' …</t>
+  </si>
+  <si>
+    <t>The object class 'SpectrumPropertiesChannel' …</t>
+  </si>
+  <si>
+    <t>The object class 'SpectrumPropertiesLaser' …</t>
+  </si>
+  <si>
+    <t>The object class 'SpectrumPropertiesGrid' …</t>
+  </si>
+  <si>
+    <t>The object class 'WaveShapeProperties' …</t>
+  </si>
+  <si>
+    <t>The object class 'ChannelPropertiesChannelSummary' …</t>
+  </si>
+  <si>
+    <t>The object class 'ChannelPropertiesChannelEntryEffects' …</t>
+  </si>
+  <si>
+    <t>The object class 'ChannelPropertiesChannelLoss' …</t>
+  </si>
+  <si>
+    <t>The object class 'ChannelPropertiesChannelDispersion' …</t>
+  </si>
+  <si>
+    <t>The object class 'ChannelPropertiesChannelSignalCrosstalkProperties' …</t>
+  </si>
+  <si>
+    <t>The object class 'LaserProperties' …</t>
+  </si>
+  <si>
+    <t>The object class 'ModulatedLightProperties' …</t>
+  </si>
+  <si>
+    <t>The object class 'ReceiverProperties' …</t>
+  </si>
+  <si>
+    <t>The object class 'PowerProperties' …</t>
+  </si>
+  <si>
+    <t>The object class 'FecProperties' …</t>
+  </si>
+  <si>
+    <t>The object class 'ChannelTrace' …</t>
+  </si>
+  <si>
+    <t>The object class 'SignalSourceLabel' …</t>
+  </si>
+  <si>
+    <t>The object class 'SignalCharacteristics' …</t>
+  </si>
+  <si>
+    <t>The object class 'FarendIndications' …</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>not initialized</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1869,12 +1935,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1980,6 +2085,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -4398,12 +4521,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:L77"/>
+  <sheetPr codeName="Tabelle1" filterMode="1"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -4415,14 +4538,16 @@
     <col min="5" max="5" width="25.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="94.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="B1" s="23" t="s">
         <v>45</v>
       </c>
@@ -4438,26 +4563,29 @@
       <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="J1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1">
+    <row r="2" spans="1:13" s="18" customFormat="1">
       <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
@@ -4479,18 +4607,19 @@
       <c r="G2" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:13" ht="30" hidden="1" outlineLevel="1">
       <c r="B3" s="20" t="str">
         <f>D3&amp; "."&amp;E3</f>
         <v>Example.examplePower</v>
@@ -4511,17 +4640,20 @@
         <f>HYPERLINK("Number!A2","Number")</f>
         <v>Number</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" outlineLevel="1">
       <c r="B4" s="20" t="str">
         <f>D4&amp; "."&amp;E4</f>
         <v>Example.examplePower</v>
@@ -4543,7 +4675,7 @@
         <v>Boolean</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -4551,8 +4683,11 @@
       <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" outlineLevel="1">
       <c r="B5" s="20" t="str">
         <f>D5&amp; "."&amp;E5</f>
         <v>Example.userLabel</v>
@@ -4573,17 +4708,21 @@
         <f>HYPERLINK(String!C3,"String")</f>
         <v>String</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" outlineLevel="1">
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" outlineLevel="1">
       <c r="B6" s="20" t="str">
         <f>D6&amp; "."&amp;E6</f>
         <v>Example.lifecycle</v>
@@ -4602,19 +4741,22 @@
         <v>ENUM</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B7" s="26"/>
     </row>
-    <row r="8" spans="1:12" collapsed="1">
+    <row r="8" spans="1:13">
       <c r="B8" s="28" t="str">
         <f t="shared" ref="B8:B13" si="0">D8 &amp; "." &amp; E8</f>
         <v>SummaryProperties.applicationIdentifier</v>
@@ -4631,25 +4773,26 @@
       <c r="F8" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="G8" s="36" t="str">
+      <c r="G8" s="42" t="str">
         <f>HYPERLINK(String!C6,"String")</f>
         <v>String</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="B9" s="28" t="str">
         <f t="shared" si="0"/>
         <v>SummaryProperties.receiverApplicationType</v>
@@ -4667,25 +4810,26 @@
       <c r="F9" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="G9" s="36" t="str">
+      <c r="G9" s="42" t="str">
         <f>HYPERLINK(String!C7,"String")</f>
         <v>String</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="31"/>
+      <c r="I9" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="B10" s="28" t="str">
         <f t="shared" si="0"/>
         <v>SummaryProperties.operationalState</v>
@@ -4703,25 +4847,26 @@
       <c r="F10" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="G10" s="36" t="str">
+      <c r="G10" s="42" t="str">
         <f>HYPERLINK(String!C8,"String")</f>
         <v>String</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="31"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="1:13" hidden="1">
       <c r="B11" s="28" t="str">
         <f t="shared" si="0"/>
         <v>SpectrumPropertiesChannel.upperFrequency</v>
@@ -4742,21 +4887,24 @@
         <f t="shared" ref="G11:G16" si="1">HYPERLINK("Number!A2","Number")</f>
         <v>Number</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="45">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="K11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="L11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="31"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="1:13" hidden="1">
       <c r="B12" s="28" t="str">
         <f t="shared" si="0"/>
         <v>SpectrumPropertiesChannel.lowerFrequency</v>
@@ -4781,18 +4929,21 @@
       <c r="H12" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="K12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="L12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="31"/>
-    </row>
-    <row r="13" spans="1:12" ht="90">
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="1:13" ht="90" hidden="1">
       <c r="B13" s="28" t="str">
         <f t="shared" si="0"/>
         <v>SpectrumPropertiesChannel.guardUpper</v>
@@ -4817,18 +4968,21 @@
       <c r="H13" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="K13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="L13" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="31"/>
-    </row>
-    <row r="14" spans="1:12" ht="75">
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" ht="75" hidden="1">
       <c r="B14" s="28" t="str">
         <f t="shared" ref="B14:B73" si="3">D14&amp; "."&amp;E14</f>
         <v>SpectrumPropertiesChannel.guardLower</v>
@@ -4853,18 +5007,21 @@
       <c r="H14" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
+      <c r="J14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="K14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="L14" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="31"/>
-    </row>
-    <row r="15" spans="1:12" ht="45">
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="1:13" ht="45" hidden="1">
       <c r="B15" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SpectrumPropertiesLaser.centralFrequency</v>
@@ -4888,18 +5045,21 @@
       <c r="H15" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="31">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="K15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="L15" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="31"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" hidden="1">
       <c r="B16" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SpectrumPropertiesLaser.channelWidth</v>
@@ -4924,18 +5084,21 @@
       <c r="H16" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="K16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="L16" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="31"/>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="2:13" hidden="1">
       <c r="B17" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SpectrumPropertiesGrid.gridType</v>
@@ -4959,18 +5122,21 @@
       <c r="H17" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" t="s">
+        <v>291</v>
+      </c>
+      <c r="J17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="K17" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="L17" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="31"/>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="2:13" hidden="1">
       <c r="B18" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SpectrumPropertiesGrid.adjustmentGranularity</v>
@@ -4995,18 +5161,21 @@
       <c r="H18" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="34">
+        <v>0</v>
+      </c>
+      <c r="J18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="K18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="L18" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="31"/>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="2:13" hidden="1">
       <c r="B19" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SpectrumPropertiesGrid.channelSpacing</v>
@@ -5032,8 +5201,9 @@
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="2:13" hidden="1">
       <c r="B20" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SpectrumPropertiesGrid.widthNumber</v>
@@ -5058,18 +5228,21 @@
       <c r="H20" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="31">
+        <v>0</v>
+      </c>
+      <c r="J20" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="K20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="L20" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="L20" s="31"/>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="2:13" hidden="1">
       <c r="B21" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SpectrumPropertiesGrid.channelNumber</v>
@@ -5094,16 +5267,19 @@
       <c r="H21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="31">
+        <v>0</v>
+      </c>
+      <c r="J21" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="K21" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="31"/>
       <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="2:12" ht="150">
+      <c r="M21" s="31"/>
+    </row>
+    <row r="22" spans="2:13" ht="150" hidden="1">
       <c r="B22" s="28" t="str">
         <f t="shared" si="3"/>
         <v>WaveShapeProperties.eyeMask</v>
@@ -5126,16 +5302,17 @@
       <c r="H22" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="34"/>
+      <c r="J22" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="K22" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="31"/>
       <c r="L22" s="31"/>
-    </row>
-    <row r="23" spans="2:12">
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="2:13" hidden="1">
       <c r="B23" s="28" t="str">
         <f t="shared" si="3"/>
         <v>WaveShapeProperties.extinctionRatio</v>
@@ -5160,16 +5337,19 @@
       <c r="H23" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="31">
+        <v>0</v>
+      </c>
+      <c r="J23" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="K23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="31"/>
       <c r="L23" s="31"/>
-    </row>
-    <row r="24" spans="2:12" ht="105">
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="2:13" ht="105" hidden="1">
       <c r="B24" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelPropertiesChannelSummary.channelPenalty</v>
@@ -5193,18 +5373,21 @@
       <c r="H24" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="31">
+        <v>0</v>
+      </c>
+      <c r="J24" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="K24" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="33" t="s">
+      <c r="L24" s="31"/>
+      <c r="M24" s="33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="75">
+    <row r="25" spans="2:13" ht="75" hidden="1">
       <c r="B25" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelPropertiesChannelEntryEffects.channelInsertionLoss</v>
@@ -5228,18 +5411,21 @@
       <c r="H25" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="31">
+        <v>0</v>
+      </c>
+      <c r="J25" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="K25" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="33" t="s">
+      <c r="L25" s="31"/>
+      <c r="M25" s="33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="120">
+    <row r="26" spans="2:13" ht="120" hidden="1">
       <c r="B26" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelPropertiesChannelEntryEffects.channelReturnLoss</v>
@@ -5264,18 +5450,21 @@
       <c r="H26" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="31">
+        <v>0</v>
+      </c>
+      <c r="J26" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="K26" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="33" t="s">
+      <c r="L26" s="31"/>
+      <c r="M26" s="33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="75">
+    <row r="27" spans="2:13" ht="75" hidden="1">
       <c r="B27" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelPropertiesChannelEntryEffects.channelReflectance</v>
@@ -5300,18 +5489,21 @@
       <c r="H27" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="31">
+        <v>0</v>
+      </c>
+      <c r="J27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="K27" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="31"/>
+      <c r="M27" s="33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="75">
+    <row r="28" spans="2:13" ht="75" hidden="1">
       <c r="B28" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelPropertiesChannelEntryEffects.discreteReflectance</v>
@@ -5335,12 +5527,13 @@
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="33" t="s">
+      <c r="K28" s="34"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:13" hidden="1">
       <c r="B29" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelPropertiesChannelLoss.channelAttenuation</v>
@@ -5364,16 +5557,19 @@
       <c r="H29" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="34">
+        <v>0</v>
+      </c>
+      <c r="J29" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="K29" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="31"/>
       <c r="L29" s="31"/>
-    </row>
-    <row r="30" spans="2:12">
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="2:13" hidden="1">
       <c r="B30" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelPropertiesChannelDispersion.channelDifferentialGroupDelay</v>
@@ -5397,16 +5593,19 @@
       <c r="H30" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="31">
+        <v>0</v>
+      </c>
+      <c r="J30" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="K30" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="31"/>
       <c r="L30" s="31"/>
-    </row>
-    <row r="31" spans="2:12">
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="2:13" hidden="1">
       <c r="B31" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelPropertiesChannelDispersion.chromaticDispersionCharacteristic</v>
@@ -5431,16 +5630,19 @@
       <c r="H31" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="K31" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="31"/>
       <c r="L31" s="31"/>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="M31" s="31"/>
+    </row>
+    <row r="32" spans="2:13" hidden="1">
       <c r="B32" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelPropertiesChannelDispersion.polarizationModeDispersion</v>
@@ -5465,16 +5667,19 @@
       <c r="H32" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="31">
+        <v>0</v>
+      </c>
+      <c r="J32" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="31" t="s">
+      <c r="K32" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="31"/>
       <c r="L32" s="31"/>
-    </row>
-    <row r="33" spans="2:12">
+      <c r="M32" s="31"/>
+    </row>
+    <row r="33" spans="2:13" hidden="1">
       <c r="B33" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelPropertiesChannelSignalCrosstalkProperties.interChannelCrosstalk</v>
@@ -5498,16 +5703,19 @@
       <c r="H33" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="I33" s="31">
+        <v>0</v>
+      </c>
+      <c r="J33" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="31" t="s">
+      <c r="K33" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="31"/>
       <c r="L33" s="31"/>
-    </row>
-    <row r="34" spans="2:12">
+      <c r="M33" s="31"/>
+    </row>
+    <row r="34" spans="2:13" hidden="1">
       <c r="B34" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelPropertiesChannelSignalCrosstalkProperties.interferometricCrosstalk</v>
@@ -5532,16 +5740,19 @@
       <c r="H34" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="31" t="s">
+      <c r="I34" s="31">
+        <v>0</v>
+      </c>
+      <c r="J34" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="K34" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="31"/>
       <c r="L34" s="31"/>
-    </row>
-    <row r="35" spans="2:12">
+      <c r="M34" s="31"/>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="28" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">LaserProperties.laserApplicationType </v>
@@ -5558,23 +5769,26 @@
       <c r="F35" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="G35" s="36" t="str">
+      <c r="G35" s="42" t="str">
         <f>HYPERLINK(String!C33,"String")</f>
         <v>String</v>
       </c>
       <c r="H35" s="31"/>
       <c r="I35" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J35" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="K35" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" s="31"/>
-    </row>
-    <row r="36" spans="2:12">
+      <c r="L35" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="31"/>
+    </row>
+    <row r="36" spans="2:13" hidden="1">
       <c r="B36" s="28" t="str">
         <f t="shared" si="3"/>
         <v>LaserProperties.laserBiasCurrent</v>
@@ -5596,21 +5810,24 @@
         <f>HYPERLINK("Number!A2","Number")</f>
         <v>Number</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H36" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="45">
+        <v>0</v>
+      </c>
+      <c r="J36" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="K36" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="31"/>
-    </row>
-    <row r="37" spans="2:12" ht="75">
+      <c r="L36" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="31"/>
+    </row>
+    <row r="37" spans="2:13" ht="75" hidden="1">
       <c r="B37" s="28" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">LaserProperties.laserTemperature </v>
@@ -5635,18 +5852,21 @@
       <c r="H37" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I37" s="31">
+        <v>0</v>
+      </c>
+      <c r="J37" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="K37" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="33" t="s">
+      <c r="L37" s="31"/>
+      <c r="M37" s="33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:13" hidden="1">
       <c r="B38" s="28" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">ModulatedLightProperties.spectralWidth </v>
@@ -5670,16 +5890,19 @@
       <c r="H38" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="I38" s="31" t="s">
+      <c r="I38" s="31">
+        <v>0</v>
+      </c>
+      <c r="J38" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="31" t="s">
+      <c r="K38" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="31"/>
       <c r="L38" s="31"/>
-    </row>
-    <row r="39" spans="2:12">
+      <c r="M38" s="31"/>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="28" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">ReceiverProperties.modulationApproach </v>
@@ -5696,21 +5919,24 @@
       <c r="F39" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="G39" s="36" t="str">
+      <c r="G39" s="42" t="str">
         <f>HYPERLINK(String!C37,"String")</f>
         <v>String</v>
       </c>
       <c r="H39" s="31"/>
       <c r="I39" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J39" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="31" t="s">
+      <c r="K39" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="31"/>
       <c r="L39" s="31"/>
-    </row>
-    <row r="40" spans="2:12">
+      <c r="M39" s="31"/>
+    </row>
+    <row r="40" spans="2:13" hidden="1">
       <c r="B40" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ReceiverProperties.receiverEquivalentSensitivity</v>
@@ -5731,13 +5957,14 @@
       <c r="G40" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
       <c r="J40" s="34"/>
-      <c r="K40" s="31"/>
+      <c r="K40" s="34"/>
       <c r="L40" s="31"/>
-    </row>
-    <row r="41" spans="2:12">
+      <c r="M40" s="31"/>
+    </row>
+    <row r="41" spans="2:13" hidden="1">
       <c r="B41" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ReceiverProperties.receiverSensitivity</v>
@@ -5762,16 +5989,19 @@
       <c r="H41" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="31" t="s">
+      <c r="I41" s="31">
+        <v>0</v>
+      </c>
+      <c r="J41" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="31" t="s">
+      <c r="K41" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="31"/>
       <c r="L41" s="31"/>
-    </row>
-    <row r="42" spans="2:12">
+      <c r="M41" s="31"/>
+    </row>
+    <row r="42" spans="2:13" hidden="1">
       <c r="B42" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ReceiverProperties.receiverReflectance</v>
@@ -5796,16 +6026,19 @@
       <c r="H42" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="31" t="s">
+      <c r="I42" s="31">
+        <v>0</v>
+      </c>
+      <c r="J42" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J42" s="31" t="s">
+      <c r="K42" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="31"/>
       <c r="L42" s="31"/>
-    </row>
-    <row r="43" spans="2:12">
+      <c r="M42" s="31"/>
+    </row>
+    <row r="43" spans="2:13" hidden="1">
       <c r="B43" s="28" t="str">
         <f t="shared" si="3"/>
         <v>PowerProperties.totalPower</v>
@@ -5829,16 +6062,19 @@
       <c r="H43" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="31" t="s">
+      <c r="I43" s="31">
+        <v>0</v>
+      </c>
+      <c r="J43" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J43" s="31" t="s">
+      <c r="K43" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="31"/>
       <c r="L43" s="31"/>
-    </row>
-    <row r="44" spans="2:12">
+      <c r="M43" s="31"/>
+    </row>
+    <row r="44" spans="2:13" hidden="1">
       <c r="B44" s="28" t="str">
         <f t="shared" si="3"/>
         <v>PowerProperties.powerSpectralDensity</v>
@@ -5863,16 +6099,19 @@
       <c r="H44" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="31" t="s">
+      <c r="I44" s="31">
+        <v>0</v>
+      </c>
+      <c r="J44" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="31" t="s">
+      <c r="K44" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="31"/>
       <c r="L44" s="31"/>
-    </row>
-    <row r="45" spans="2:12" ht="75">
+      <c r="M44" s="31"/>
+    </row>
+    <row r="45" spans="2:13" ht="75" hidden="1">
       <c r="B45" s="28" t="str">
         <f t="shared" si="3"/>
         <v>FecProperties.preFecBer</v>
@@ -5894,18 +6133,21 @@
         <v>Number</v>
       </c>
       <c r="H45" s="31"/>
-      <c r="I45" s="31" t="s">
+      <c r="I45" s="31">
+        <v>0</v>
+      </c>
+      <c r="J45" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="K45" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="31"/>
-      <c r="L45" s="33" t="s">
+      <c r="L45" s="31"/>
+      <c r="M45" s="33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="75">
+    <row r="46" spans="2:13" ht="75" hidden="1">
       <c r="B46" s="28" t="str">
         <f t="shared" si="3"/>
         <v>FecProperties.postFecBer</v>
@@ -5928,18 +6170,21 @@
         <v>Number</v>
       </c>
       <c r="H46" s="31"/>
-      <c r="I46" s="31" t="s">
+      <c r="I46" s="31">
+        <v>0</v>
+      </c>
+      <c r="J46" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="31" t="s">
+      <c r="K46" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="31"/>
-      <c r="L46" s="33" t="s">
+      <c r="L46" s="31"/>
+      <c r="M46" s="33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="15.75">
+    <row r="47" spans="2:13" ht="15.75" hidden="1">
       <c r="B47" s="28" t="str">
         <f t="shared" si="3"/>
         <v>FecProperties.uncorrectableBits</v>
@@ -5962,18 +6207,21 @@
         <v>Number</v>
       </c>
       <c r="H47" s="31"/>
-      <c r="I47" s="31" t="s">
+      <c r="I47" s="31">
+        <v>0</v>
+      </c>
+      <c r="J47" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="31" t="s">
+      <c r="K47" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="31"/>
-      <c r="L47" s="33" t="s">
+      <c r="L47" s="31"/>
+      <c r="M47" s="33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="15.75">
+    <row r="48" spans="2:13" ht="15.75" hidden="1">
       <c r="B48" s="28" t="str">
         <f t="shared" si="3"/>
         <v>FecProperties.uncorrectableBytes</v>
@@ -5996,18 +6244,21 @@
         <v>Number</v>
       </c>
       <c r="H48" s="31"/>
-      <c r="I48" s="31" t="s">
+      <c r="I48" s="31">
+        <v>0</v>
+      </c>
+      <c r="J48" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J48" s="31" t="s">
+      <c r="K48" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K48" s="31"/>
-      <c r="L48" s="33" t="s">
+      <c r="L48" s="31"/>
+      <c r="M48" s="33" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:13" hidden="1">
       <c r="B49" s="28" t="str">
         <f t="shared" si="3"/>
         <v>FecProperties.correctedBytes</v>
@@ -6030,16 +6281,19 @@
         <v>Number</v>
       </c>
       <c r="H49" s="31"/>
-      <c r="I49" s="31" t="s">
+      <c r="I49" s="31">
+        <v>0</v>
+      </c>
+      <c r="J49" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="31" t="s">
+      <c r="K49" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K49" s="31"/>
       <c r="L49" s="31"/>
-    </row>
-    <row r="50" spans="2:12">
+      <c r="M49" s="31"/>
+    </row>
+    <row r="50" spans="2:13" hidden="1">
       <c r="B50" s="28" t="str">
         <f t="shared" si="3"/>
         <v>FecProperties.correctedBits</v>
@@ -6062,16 +6316,19 @@
         <v>Number</v>
       </c>
       <c r="H50" s="31"/>
-      <c r="I50" s="31" t="s">
+      <c r="I50" s="31">
+        <v>0</v>
+      </c>
+      <c r="J50" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="31" t="s">
+      <c r="K50" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K50" s="31"/>
       <c r="L50" s="31"/>
-    </row>
-    <row r="51" spans="2:12">
+      <c r="M50" s="31"/>
+    </row>
+    <row r="51" spans="2:13" hidden="1">
       <c r="B51" s="28" t="str">
         <f t="shared" si="3"/>
         <v>FecProperties.qualityValue</v>
@@ -6094,16 +6351,19 @@
         <v>Number</v>
       </c>
       <c r="H51" s="31"/>
-      <c r="I51" s="31" t="s">
+      <c r="I51" s="31">
+        <v>0</v>
+      </c>
+      <c r="J51" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J51" s="31" t="s">
+      <c r="K51" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K51" s="31"/>
       <c r="L51" s="31"/>
-    </row>
-    <row r="52" spans="2:12">
+      <c r="M51" s="31"/>
+    </row>
+    <row r="52" spans="2:13">
       <c r="B52" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelTrace.traceTransferMethod</v>
@@ -6120,21 +6380,24 @@
       <c r="F52" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="G52" s="36" t="str">
+      <c r="G52" s="42" t="str">
         <f>HYPERLINK(String!C52,"String")</f>
         <v>String</v>
       </c>
       <c r="H52" s="31"/>
       <c r="I52" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J52" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="31" t="s">
+      <c r="K52" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K52" s="31"/>
       <c r="L52" s="31"/>
-    </row>
-    <row r="53" spans="2:12">
+      <c r="M52" s="31"/>
+    </row>
+    <row r="53" spans="2:13">
       <c r="B53" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelTrace.traceTransmitted</v>
@@ -6152,21 +6415,24 @@
       <c r="F53" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="G53" s="36" t="str">
+      <c r="G53" s="42" t="str">
         <f>HYPERLINK(String!C53,"String")</f>
         <v>String</v>
       </c>
       <c r="H53" s="31"/>
       <c r="I53" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J53" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J53" s="31" t="s">
+      <c r="K53" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K53" s="31"/>
       <c r="L53" s="31"/>
-    </row>
-    <row r="54" spans="2:12">
+      <c r="M53" s="31"/>
+    </row>
+    <row r="54" spans="2:13">
       <c r="B54" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelTrace.traceReceived</v>
@@ -6184,21 +6450,24 @@
       <c r="F54" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="G54" s="36" t="str">
+      <c r="G54" s="42" t="str">
         <f>HYPERLINK(String!C54,"String")</f>
         <v>String</v>
       </c>
       <c r="H54" s="31"/>
       <c r="I54" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J54" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="31" t="s">
+      <c r="K54" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K54" s="31"/>
       <c r="L54" s="31"/>
-    </row>
-    <row r="55" spans="2:12">
+      <c r="M54" s="31"/>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelTrace.traceExpected</v>
@@ -6216,21 +6485,24 @@
       <c r="F55" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="G55" s="36" t="str">
+      <c r="G55" s="42" t="str">
         <f>HYPERLINK(String!C55,"String")</f>
         <v>String</v>
       </c>
       <c r="H55" s="31"/>
       <c r="I55" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J55" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="31" t="s">
+      <c r="K55" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K55" s="31"/>
       <c r="L55" s="31"/>
-    </row>
-    <row r="56" spans="2:12">
+      <c r="M55" s="31"/>
+    </row>
+    <row r="56" spans="2:13">
       <c r="B56" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelTrace.traceMismatchDetected</v>
@@ -6248,21 +6520,24 @@
       <c r="F56" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="G56" s="36" t="str">
+      <c r="G56" s="42" t="str">
         <f>HYPERLINK(String!C56,"String")</f>
         <v>String</v>
       </c>
       <c r="H56" s="31"/>
       <c r="I56" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J56" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J56" s="31" t="s">
+      <c r="K56" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K56" s="31"/>
       <c r="L56" s="31"/>
-    </row>
-    <row r="57" spans="2:12">
+      <c r="M56" s="31"/>
+    </row>
+    <row r="57" spans="2:13">
       <c r="B57" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelTrace.traceMismatchDetectionMode</v>
@@ -6280,21 +6555,24 @@
       <c r="F57" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="G57" s="36" t="str">
+      <c r="G57" s="42" t="str">
         <f>HYPERLINK(String!C57,"String")</f>
         <v>String</v>
       </c>
       <c r="H57" s="31"/>
       <c r="I57" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J57" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J57" s="31" t="s">
+      <c r="K57" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K57" s="31"/>
       <c r="L57" s="31"/>
-    </row>
-    <row r="58" spans="2:12">
+      <c r="M57" s="31"/>
+    </row>
+    <row r="58" spans="2:13">
       <c r="B58" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelTrace.traceMismatchDetectionAction</v>
@@ -6312,21 +6590,24 @@
       <c r="F58" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="G58" s="36" t="str">
+      <c r="G58" s="42" t="str">
         <f>HYPERLINK(String!C58,"String")</f>
         <v>String</v>
       </c>
       <c r="H58" s="31"/>
       <c r="I58" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J58" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J58" s="31" t="s">
+      <c r="K58" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K58" s="31"/>
       <c r="L58" s="31"/>
-    </row>
-    <row r="59" spans="2:12">
+      <c r="M58" s="31"/>
+    </row>
+    <row r="59" spans="2:13">
       <c r="B59" s="28" t="str">
         <f t="shared" si="3"/>
         <v>ChannelTrace.traceGenerationApproach</v>
@@ -6344,21 +6625,24 @@
       <c r="F59" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="G59" s="36" t="str">
+      <c r="G59" s="42" t="str">
         <f>HYPERLINK(String!C59,"String")</f>
         <v>String</v>
       </c>
       <c r="H59" s="31"/>
       <c r="I59" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J59" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="31" t="s">
+      <c r="K59" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K59" s="31"/>
       <c r="L59" s="31"/>
-    </row>
-    <row r="60" spans="2:12">
+      <c r="M59" s="31"/>
+    </row>
+    <row r="60" spans="2:13">
       <c r="B60" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SignalSourceLabel.signalLabelTransferMethod</v>
@@ -6375,21 +6659,24 @@
       <c r="F60" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="G60" s="36" t="str">
+      <c r="G60" s="42" t="str">
         <f>HYPERLINK(String!C61,"String")</f>
         <v>String</v>
       </c>
       <c r="H60" s="31"/>
       <c r="I60" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J60" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J60" s="31" t="s">
+      <c r="K60" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K60" s="31"/>
       <c r="L60" s="31"/>
-    </row>
-    <row r="61" spans="2:12">
+      <c r="M60" s="31"/>
+    </row>
+    <row r="61" spans="2:13">
       <c r="B61" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SignalSourceLabel.signalLabelTransmitted</v>
@@ -6407,21 +6694,24 @@
       <c r="F61" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="G61" s="36" t="str">
+      <c r="G61" s="42" t="str">
         <f>HYPERLINK(String!C62,"String")</f>
         <v>String</v>
       </c>
       <c r="H61" s="31"/>
       <c r="I61" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J61" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J61" s="31" t="s">
+      <c r="K61" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K61" s="31"/>
       <c r="L61" s="31"/>
-    </row>
-    <row r="62" spans="2:12">
+      <c r="M61" s="31"/>
+    </row>
+    <row r="62" spans="2:13">
       <c r="B62" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SignalSourceLabel.signalLabelReceived</v>
@@ -6439,21 +6729,24 @@
       <c r="F62" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="G62" s="36" t="str">
+      <c r="G62" s="42" t="str">
         <f>HYPERLINK(String!C63,"String")</f>
         <v>String</v>
       </c>
       <c r="H62" s="31"/>
       <c r="I62" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J62" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J62" s="31" t="s">
+      <c r="K62" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K62" s="31"/>
       <c r="L62" s="31"/>
-    </row>
-    <row r="63" spans="2:12">
+      <c r="M62" s="31"/>
+    </row>
+    <row r="63" spans="2:13">
       <c r="B63" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SignalSourceLabel.signalLabelExpected</v>
@@ -6471,21 +6764,24 @@
       <c r="F63" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="G63" s="36" t="str">
+      <c r="G63" s="42" t="str">
         <f>HYPERLINK(String!C64,"String")</f>
         <v>String</v>
       </c>
       <c r="H63" s="31"/>
       <c r="I63" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J63" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="31" t="s">
+      <c r="K63" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K63" s="31"/>
       <c r="L63" s="31"/>
-    </row>
-    <row r="64" spans="2:12">
+      <c r="M63" s="31"/>
+    </row>
+    <row r="64" spans="2:13">
       <c r="B64" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SignalSourceLabel.signalLabelMismatchDectected</v>
@@ -6503,21 +6799,24 @@
       <c r="F64" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="G64" s="36" t="str">
+      <c r="G64" s="42" t="str">
         <f>HYPERLINK(String!C65,"String")</f>
         <v>String</v>
       </c>
       <c r="H64" s="31"/>
       <c r="I64" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J64" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J64" s="31" t="s">
+      <c r="K64" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K64" s="31"/>
       <c r="L64" s="31"/>
-    </row>
-    <row r="65" spans="2:12">
+      <c r="M64" s="31"/>
+    </row>
+    <row r="65" spans="2:13">
       <c r="B65" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SignalSourceLabel.signalLabelMismatchDetectionMode</v>
@@ -6535,21 +6834,24 @@
       <c r="F65" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="G65" s="36" t="str">
+      <c r="G65" s="42" t="str">
         <f>HYPERLINK(String!C66,"String")</f>
         <v>String</v>
       </c>
       <c r="H65" s="31"/>
       <c r="I65" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J65" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J65" s="31" t="s">
+      <c r="K65" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K65" s="31"/>
       <c r="L65" s="31"/>
-    </row>
-    <row r="66" spans="2:12">
+      <c r="M65" s="31"/>
+    </row>
+    <row r="66" spans="2:13">
       <c r="B66" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SignalSourceLabel.signalLabelMismatchDetectionAction</v>
@@ -6567,21 +6869,24 @@
       <c r="F66" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="G66" s="36" t="str">
+      <c r="G66" s="42" t="str">
         <f>HYPERLINK(String!C67,"String")</f>
         <v>String</v>
       </c>
       <c r="H66" s="31"/>
       <c r="I66" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J66" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J66" s="31" t="s">
+      <c r="K66" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="31"/>
       <c r="L66" s="31"/>
-    </row>
-    <row r="67" spans="2:12">
+      <c r="M66" s="31"/>
+    </row>
+    <row r="67" spans="2:13">
       <c r="B67" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SignalSourceLabel.signalLabelGenerationApproach</v>
@@ -6599,21 +6904,24 @@
       <c r="F67" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="G67" s="36" t="str">
+      <c r="G67" s="42" t="str">
         <f>HYPERLINK(String!C68,"String")</f>
         <v>String</v>
       </c>
       <c r="H67" s="31"/>
       <c r="I67" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J67" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="31" t="s">
+      <c r="K67" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K67" s="31"/>
       <c r="L67" s="31"/>
-    </row>
-    <row r="68" spans="2:12">
+      <c r="M67" s="31"/>
+    </row>
+    <row r="68" spans="2:13" hidden="1">
       <c r="B68" s="28" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">SignalCharacteristics.OpenConnectionIndication
@@ -6632,13 +6940,14 @@
       <c r="G68" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
       <c r="J68" s="34"/>
-      <c r="K68" s="31"/>
+      <c r="K68" s="34"/>
       <c r="L68" s="31"/>
-    </row>
-    <row r="69" spans="2:12">
+      <c r="M68" s="31"/>
+    </row>
+    <row r="69" spans="2:13" hidden="1">
       <c r="B69" s="28" t="str">
         <f t="shared" si="3"/>
         <v>SignalCharacteristics.bitRateLineCoding</v>
@@ -6664,8 +6973,9 @@
       <c r="J69" s="31"/>
       <c r="K69" s="31"/>
       <c r="L69" s="31"/>
-    </row>
-    <row r="70" spans="2:12">
+      <c r="M69" s="31"/>
+    </row>
+    <row r="70" spans="2:13">
       <c r="B70" s="28" t="str">
         <f t="shared" si="3"/>
         <v>FarendIndications.farEndProblemTransmitToHere</v>
@@ -6682,21 +6992,24 @@
       <c r="F70" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="G70" s="36" t="str">
+      <c r="G70" s="42" t="str">
         <f>HYPERLINK(String!C74,"String")</f>
         <v>String</v>
       </c>
       <c r="H70" s="31"/>
       <c r="I70" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J70" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J70" s="31" t="s">
+      <c r="K70" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K70" s="31"/>
       <c r="L70" s="31"/>
-    </row>
-    <row r="71" spans="2:12">
+      <c r="M70" s="31"/>
+    </row>
+    <row r="71" spans="2:13">
       <c r="B71" s="28" t="str">
         <f t="shared" si="3"/>
         <v>FarendIndications.farEndProblemReceiveFromHere</v>
@@ -6714,21 +7027,24 @@
       <c r="F71" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="G71" s="36" t="str">
+      <c r="G71" s="42" t="str">
         <f>HYPERLINK(String!C75,"String")</f>
         <v>String</v>
       </c>
       <c r="H71" s="31"/>
       <c r="I71" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J71" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J71" s="31" t="s">
+      <c r="K71" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K71" s="31"/>
       <c r="L71" s="31"/>
-    </row>
-    <row r="72" spans="2:12">
+      <c r="M71" s="31"/>
+    </row>
+    <row r="72" spans="2:13">
       <c r="B72" s="28" t="str">
         <f t="shared" si="3"/>
         <v>FarendIndications.farEndProblemTransmitAwayFromHere</v>
@@ -6746,21 +7062,24 @@
       <c r="F72" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="G72" s="36" t="str">
+      <c r="G72" s="42" t="str">
         <f>HYPERLINK(String!C76,"String")</f>
         <v>String</v>
       </c>
       <c r="H72" s="31"/>
       <c r="I72" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J72" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="31" t="s">
+      <c r="K72" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K72" s="31"/>
       <c r="L72" s="31"/>
-    </row>
-    <row r="73" spans="2:12">
+      <c r="M72" s="31"/>
+    </row>
+    <row r="73" spans="2:13" hidden="1">
       <c r="B73" s="28" t="str">
         <f t="shared" si="3"/>
         <v>FarendIndications.farEndProblemReceiveTowardsHere</v>
@@ -6781,26 +7100,33 @@
       <c r="G73" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
       <c r="J73" s="31"/>
       <c r="K73" s="31"/>
       <c r="L73" s="31"/>
-    </row>
-    <row r="74" spans="2:12">
+      <c r="M73" s="31"/>
+    </row>
+    <row r="74" spans="2:13">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:13">
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="2:12">
+    <row r="76" spans="2:13">
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="2:13">
       <c r="B77" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L73" xr:uid="{F71C32B3-1F0C-4E23-A87F-2DC592B295C9}"/>
+  <autoFilter ref="A1:M73" xr:uid="{F71C32B3-1F0C-4E23-A87F-2DC592B295C9}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="String"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="H32" r:id="rId1" tooltip="Picosecond" display="https://en.wikipedia.org/wiki/Picosecond" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -8555,7 +8881,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -8741,10 +9067,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3F26DE-A05E-4153-BF0C-B17E3A1D3747}">
   <sheetPr codeName="Tabelle6"/>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D4" sqref="D4:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -8752,17 +9078,21 @@
     <col min="1" max="1" width="11.42578125" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="48.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" outlineLevel="1">
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" outlineLevel="1">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -8772,195 +9102,258 @@
       <c r="C2" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" outlineLevel="1">
+      <c r="D2" s="17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" outlineLevel="1">
       <c r="B3" s="40" t="s">
         <v>362</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="40" t="s">
         <v>363</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="31" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="40" t="s">
         <v>364</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="40" t="s">
         <v>365</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="40" t="s">
         <v>366</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="40" t="s">
         <v>367</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="40" t="s">
         <v>368</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="31" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" s="40" t="s">
         <v>369</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="31" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11" s="40" t="s">
         <v>370</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" s="40" t="s">
         <v>371</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" s="40" t="s">
         <v>372</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="31" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14" s="40" t="s">
         <v>373</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="31" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" s="40" t="s">
         <v>374</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="31" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16" s="40" t="s">
         <v>375</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="D16" s="31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="40" t="s">
         <v>376</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="D17" s="31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="40" t="s">
         <v>377</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="D18" s="31" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="40" t="s">
         <v>378</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="D19" s="31" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="40" t="s">
         <v>379</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="D20" s="31" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="40" t="s">
         <v>380</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="D21" s="31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="40" t="s">
         <v>381</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="D22" s="31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:4">
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:4">
       <c r="C25"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:4">
       <c r="C26"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:4">
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:4">
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:4">
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:4">
       <c r="C30"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:4">
       <c r="C31"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:4">
       <c r="C32"/>
     </row>
     <row r="33" spans="3:3">
